--- a/SPRINGER_JOURNAL/RELATED_WORK/survey_results_NOVO.xlsx
+++ b/SPRINGER_JOURNAL/RELATED_WORK/survey_results_NOVO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="120" windowWidth="25600" windowHeight="13520" tabRatio="753" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="1220" yWindow="120" windowWidth="25600" windowHeight="13520" tabRatio="753" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,9 @@
     <sheet name="best-practices-android" sheetId="7" r:id="rId7"/>
     <sheet name="android-more-difficult" sheetId="8" r:id="rId8"/>
     <sheet name="prevent-crashing" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet7" sheetId="10" r:id="rId10"/>
+    <sheet name="prevent themes" sheetId="11" r:id="rId10"/>
+    <sheet name="all" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet9" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="851">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2782,9 +2784,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve"> tracking crash reports.</t>
-  </si>
-  <si>
     <t>null checks</t>
   </si>
   <si>
@@ -2806,9 +2805,6 @@
     <t>crash report tools</t>
   </si>
   <si>
-    <t>guard statements / check boundary conditions</t>
-  </si>
-  <si>
     <t>use catch-all</t>
   </si>
   <si>
@@ -2818,9 +2814,6 @@
     <t>handling all exceptions</t>
   </si>
   <si>
-    <t>data bound checks</t>
-  </si>
-  <si>
     <t>null checks annotations (@Null and @NonNull)</t>
   </si>
   <si>
@@ -2881,9 +2874,6 @@
     <t>coding standards</t>
   </si>
   <si>
-    <t>border cases checks</t>
-  </si>
-  <si>
     <t>debug</t>
   </si>
   <si>
@@ -2902,13 +2892,13 @@
     <t xml:space="preserve">debugging </t>
   </si>
   <si>
-    <t xml:space="preserve">edge cases checks </t>
-  </si>
-  <si>
     <t xml:space="preserve">edge cases/boundaries checks </t>
   </si>
   <si>
     <t>crash fast</t>
+  </si>
+  <si>
+    <t>edge cases/boundaries checks</t>
   </si>
 </sst>
 </file>
@@ -2954,7 +2944,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2973,6 +2963,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2983,7 +2985,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3089,8 +3091,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3124,8 +3143,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="122">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3229,6 +3252,23 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -8109,6 +8149,82 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>818</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>812</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>848</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>829</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>830</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>840</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14964,6 +15080,23 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19235,8 +19368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -19244,12 +19377,12 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>811</v>
       </c>
@@ -19257,10 +19390,10 @@
         <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19268,10 +19401,10 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19279,13 +19412,16 @@
         <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="48">
+        <v>816</v>
+      </c>
+      <c r="E3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19293,13 +19429,16 @@
         <v>771</v>
       </c>
       <c r="C4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D4" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>814</v>
+      </c>
+      <c r="E4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19307,24 +19446,27 @@
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24">
+        <v>850</v>
+      </c>
+      <c r="D5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>820</v>
-      </c>
-      <c r="D6" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>850</v>
+      </c>
+      <c r="E6" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19332,7 +19474,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24">
+    <row r="8" spans="1:5" ht="24">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19340,15 +19482,15 @@
         <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="48">
+    <row r="10" spans="1:5" ht="48">
       <c r="A10">
         <v>9</v>
       </c>
@@ -19356,15 +19498,18 @@
         <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>820</v>
+      </c>
+      <c r="D10" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19372,10 +19517,10 @@
         <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="24">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19383,10 +19528,10 @@
         <v>170</v>
       </c>
       <c r="C13" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -19394,10 +19539,10 @@
         <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="24">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24">
       <c r="A15">
         <v>14</v>
       </c>
@@ -19405,7 +19550,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19413,10 +19558,10 @@
         <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="42" customHeight="1">
@@ -19427,7 +19572,7 @@
         <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19438,7 +19583,7 @@
         <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -19449,10 +19594,10 @@
         <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D19" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24">
@@ -19463,10 +19608,10 @@
         <v>234</v>
       </c>
       <c r="C20" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D20" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -19493,7 +19638,7 @@
         <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -19504,10 +19649,10 @@
         <v>262</v>
       </c>
       <c r="C24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -19518,10 +19663,10 @@
         <v>269</v>
       </c>
       <c r="C25" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -19532,7 +19677,7 @@
         <v>277</v>
       </c>
       <c r="C26" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -19543,7 +19688,7 @@
         <v>286</v>
       </c>
       <c r="C27" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -19576,10 +19721,10 @@
         <v>306</v>
       </c>
       <c r="C30" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D30" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -19606,16 +19751,16 @@
         <v>328</v>
       </c>
       <c r="C33" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D33" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E33" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="F33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -19626,7 +19771,7 @@
         <v>337</v>
       </c>
       <c r="C34" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -19642,7 +19787,7 @@
         <v>703</v>
       </c>
       <c r="C36" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -19653,7 +19798,7 @@
         <v>357</v>
       </c>
       <c r="C37" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="36">
@@ -19664,10 +19809,10 @@
         <v>365</v>
       </c>
       <c r="C38" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D38" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -19691,7 +19836,7 @@
         <v>380</v>
       </c>
       <c r="C41" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -19707,7 +19852,7 @@
         <v>396</v>
       </c>
       <c r="C43" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -19718,7 +19863,7 @@
         <v>408</v>
       </c>
       <c r="C44" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -19729,7 +19874,7 @@
         <v>420</v>
       </c>
       <c r="C45" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="48">
@@ -19740,10 +19885,10 @@
         <v>786</v>
       </c>
       <c r="C46" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="60">
@@ -19754,16 +19899,16 @@
         <v>790</v>
       </c>
       <c r="C47" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D47" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E47" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="F47" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="36">
@@ -19774,13 +19919,13 @@
         <v>451</v>
       </c>
       <c r="C48" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D48" t="s">
-        <v>824</v>
+        <v>848</v>
       </c>
       <c r="E48" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="36" customHeight="1">
@@ -19791,7 +19936,7 @@
         <v>715</v>
       </c>
       <c r="C49" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -19812,7 +19957,7 @@
         <v>793</v>
       </c>
       <c r="C52" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -19823,7 +19968,7 @@
         <v>719</v>
       </c>
       <c r="C53" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -19834,7 +19979,7 @@
         <v>492</v>
       </c>
       <c r="C54" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="36">
@@ -19845,13 +19990,13 @@
         <v>502</v>
       </c>
       <c r="C55" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D55" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E55" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -19867,10 +20012,10 @@
         <v>514</v>
       </c>
       <c r="C57" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D57" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -19881,7 +20026,7 @@
         <v>522</v>
       </c>
       <c r="C58" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -19902,19 +20047,19 @@
         <v>798</v>
       </c>
       <c r="C61" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D61" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E61" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F61" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G61" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -19925,13 +20070,13 @@
         <v>544</v>
       </c>
       <c r="C62" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D62" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E62" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="36">
@@ -19942,7 +20087,7 @@
         <v>553</v>
       </c>
       <c r="C63" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -19953,7 +20098,7 @@
         <v>561</v>
       </c>
       <c r="C64" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -19964,7 +20109,7 @@
         <v>570</v>
       </c>
       <c r="C65" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -19983,10 +20128,10 @@
         <v>590</v>
       </c>
       <c r="C67" t="s">
+        <v>829</v>
+      </c>
+      <c r="D67" t="s">
         <v>832</v>
-      </c>
-      <c r="D67" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="24">
@@ -19997,13 +20142,13 @@
         <v>601</v>
       </c>
       <c r="C68" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D68" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E68" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -20014,7 +20159,7 @@
         <v>741</v>
       </c>
       <c r="C69" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="120">
@@ -20025,13 +20170,13 @@
         <v>802</v>
       </c>
       <c r="C70" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D70" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E70" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="72">
@@ -20042,10 +20187,10 @@
         <v>806</v>
       </c>
       <c r="C71" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D71" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="48">
@@ -20056,7 +20201,7 @@
         <v>809</v>
       </c>
       <c r="C72" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
